--- a/tanslate.xlsx
+++ b/tanslate.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,207 +418,67 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>market.companyName</v>
+        <v>customer.days</v>
       </c>
       <c r="B2" t="str">
-        <v>Company Name</v>
+        <v>Days</v>
       </c>
       <c r="E2" t="str">
-        <v>公司名称</v>
+        <v>天</v>
       </c>
       <c r="F2" t="str">
-        <v>pangalan ng Kumpanya</v>
+        <v>Araw</v>
       </c>
       <c r="G2" t="str">
-        <v>nama syarikat</v>
+        <v>Hari-hari</v>
       </c>
       <c r="H2" t="str">
-        <v>Tên công ty</v>
+        <v>Ngày</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>market.companyNameTips</v>
+        <v>customer.months</v>
       </c>
       <c r="B3" t="str">
-        <v>This name will be displayed in printed documents.</v>
+        <v>Months</v>
       </c>
       <c r="E3" t="str">
-        <v>此名称将显示在打印的文档中。</v>
+        <v>月</v>
       </c>
       <c r="F3" t="str">
-        <v>Ipapakita ang pangalang ito sa mga naka-print na dokumento.</v>
+        <v>Mga buwan</v>
       </c>
       <c r="G3" t="str">
-        <v>Nama ini akan dipaparkan dalam dokumen bercetak.</v>
+        <v>Sebulan</v>
       </c>
       <c r="H3" t="str">
-        <v>Tên này sẽ được hiển thị trong tài liệu in.</v>
+        <v>Tháng</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>market.shopNameTips</v>
+        <v>customer.years</v>
       </c>
       <c r="B4" t="str">
-        <v>This name will be displayed in EGGMall.</v>
+        <v>Years</v>
       </c>
       <c r="E4" t="str">
-        <v>此名称将显示在 EGGMall 中。</v>
+        <v>年</v>
       </c>
       <c r="F4" t="str">
-        <v>Ipapakita ang pangalang ito sa EGGMall.</v>
+        <v>Taon</v>
       </c>
       <c r="G4" t="str">
-        <v>Nama ini akan dipaparkan di EGGMall.</v>
+        <v>Bertahun-tahun</v>
       </c>
       <c r="H4" t="str">
-        <v>Tên này sẽ được hiển thị trong EGGMall.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>product.sellerName</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Seller Name</v>
-      </c>
-      <c r="E5" t="str">
-        <v>卖家名称</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Pangalan ng Nagbebenta</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Nama Penjual</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Tên người bán</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>product.sellerNameTips</v>
-      </c>
-      <c r="B6" t="str">
-        <v>This name is used for user to remember the product, and can be searched in order detail page SKU line.</v>
-      </c>
-      <c r="E6" t="str">
-        <v>此名称用于用户记住产品，可在订单详情页SKU 行中搜索。</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Ginagamit ang pangalang ito upang maalala ng gumagamit ang produkto, at maaaring hanapin sa linya ng detalye ng pahina ng detalye ng SKU.</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Nama ini digunakan untuk pengguna mengingat produk, dan dapat dicari dalam baris terperinci SKU halaman.</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Tên này được sử dụng để người dùng ghi nhớ sản phẩm và có thể tìm kiếm trong dòng SKU của trang chi tiết đơn hàng.</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>product.productDescTips</v>
-      </c>
-      <c r="B7" t="str">
-        <v>This name of product will display in order detail page, and will display in EGGMall if the product is enabled in EGGMall.</v>
-      </c>
-      <c r="E7" t="str">
-        <v>此商品名称将显示在订单详情页面中，如果商品在 EGGMall 中启用，则会显示在 EGGMall 中。</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Ang pangalan ng produkto ay ipapakita sa pahina ng detalye ng pagkakasunud-sunod, at ipapakita sa EGGMall kung ang produkto ay pinagana sa EGGMall.</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Nama produk ini akan dipaparkan dalam halaman terperinci pesanan, dan akan dipaparkan di EGGMall jika produk diaktifkan di EGGMall.</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Tên sản phẩm này sẽ hiển thị trong trang chi tiết đơn hàng và sẽ hiển thị trong EGGMall nếu sản phẩm được bật trong EGGMall.</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>product.shopCode</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Shop Code</v>
-      </c>
-      <c r="E8" t="str">
-        <v>商店代码</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Shop Code</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Kod Kedai</v>
-      </c>
-      <c r="H8" t="str">
-        <v>Mã cửa hàng</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>order.goPrint</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Go Print</v>
-      </c>
-      <c r="E9" t="str">
-        <v>去打印</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Pumunta sa I-print</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Pergi Cetak</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Đi in</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>order.printDlgTitle</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Please select the document you want to print</v>
-      </c>
-      <c r="E10" t="str">
-        <v>请选择您要打印的文件</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Mangyaring piliin ang dokumento na nais mong i-print</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Sila pilih dokumen yang ingin dicetak</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Vui lòng chọn tài liệu bạn muốn in</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>order.copies</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Copies</v>
-      </c>
-      <c r="E11" t="str">
-        <v>副本</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Mga kopya</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Salinan</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Bản sao</v>
+        <v>Năm</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>